--- a/data/STEM_FA22_Schedule.xlsx
+++ b/data/STEM_FA22_Schedule.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10313"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Liberal Arts\Schedules\2022 Fall\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/will/Desktop/scheduling app/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A66F6B9A-6C9A-D745-BE60-6C892C7F2630}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9300"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="21600" windowHeight="9300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Schedule" sheetId="1" r:id="rId1"/>
@@ -23,12 +24,24 @@
     <definedName name="_xlnm.Print_Area" localSheetId="1">Blocks!$A$1:$J$126</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Schedule!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="657">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1555" uniqueCount="656">
   <si>
     <t>F</t>
   </si>
@@ -1970,9 +1983,6 @@
     <t xml:space="preserve">BB1 </t>
   </si>
   <si>
-    <t>TR 8:00 AM</t>
-  </si>
-  <si>
     <t>05CL</t>
   </si>
   <si>
@@ -2099,7 +2109,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]h:mm\ AM/PM;@"/>
   </numFmts>
@@ -2853,7 +2863,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal_Sheet1" xfId="1"/>
+    <cellStyle name="Normal_Sheet1" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -2892,7 +2902,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2049" name="Oval 1"/>
+        <xdr:cNvPr id="2049" name="Oval 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000001080000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -3224,6 +3240,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -3259,6 +3292,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3434,40 +3484,40 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T137"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <pane ySplit="3" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H86" sqref="H86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" style="3" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" style="3" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="7.7109375" style="3" customWidth="1"/>
-    <col min="5" max="5" width="6.28515625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="6.85546875" style="22" customWidth="1"/>
-    <col min="7" max="7" width="39.140625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="21.7109375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="8.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" style="3" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="9.83203125" style="3" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="7.6640625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="6.33203125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="6.83203125" style="22" customWidth="1"/>
+    <col min="7" max="7" width="39.1640625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="21.6640625" style="3" customWidth="1"/>
     <col min="9" max="9" width="2" style="3" customWidth="1"/>
-    <col min="10" max="10" width="9.5703125" style="3" customWidth="1"/>
-    <col min="11" max="11" width="10.5703125" style="4" customWidth="1"/>
-    <col min="12" max="12" width="8.85546875" style="4" customWidth="1"/>
-    <col min="13" max="13" width="5.7109375" style="4" customWidth="1"/>
-    <col min="14" max="14" width="7.42578125" style="4" customWidth="1"/>
-    <col min="15" max="15" width="5.28515625" style="4" customWidth="1"/>
-    <col min="16" max="16" width="4.5703125" style="3" customWidth="1"/>
-    <col min="17" max="17" width="7.85546875" style="3" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="10.85546875" style="3" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5" style="3" customWidth="1"/>
+    <col min="11" max="11" width="10.5" style="4" customWidth="1"/>
+    <col min="12" max="12" width="8.83203125" style="4" customWidth="1"/>
+    <col min="13" max="13" width="5.6640625" style="4" customWidth="1"/>
+    <col min="14" max="14" width="7.5" style="4" customWidth="1"/>
+    <col min="15" max="15" width="5.33203125" style="4" customWidth="1"/>
+    <col min="16" max="16" width="4.5" style="3" customWidth="1"/>
+    <col min="17" max="17" width="7.83203125" style="3" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="10.83203125" style="3" hidden="1" customWidth="1"/>
     <col min="19" max="19" width="28" style="3" customWidth="1"/>
-    <col min="20" max="20" width="9.140625" style="78"/>
-    <col min="21" max="16384" width="9.140625" style="5"/>
+    <col min="20" max="20" width="9.1640625" style="78"/>
+    <col min="21" max="16384" width="9.1640625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="25" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" s="25" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="27"/>
       <c r="B1" s="27"/>
       <c r="C1" s="27"/>
@@ -3495,7 +3545,7 @@
       <c r="S1" s="27"/>
       <c r="T1" s="76"/>
     </row>
-    <row r="2" spans="1:20" s="26" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" s="26" customFormat="1" ht="20" x14ac:dyDescent="0.2">
       <c r="A2" s="28"/>
       <c r="B2" s="28"/>
       <c r="C2" s="28"/>
@@ -3523,7 +3573,7 @@
       <c r="S2" s="28"/>
       <c r="T2" s="77"/>
     </row>
-    <row r="3" spans="1:20" s="67" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20" s="67" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="73" t="s">
         <v>15</v>
       </c>
@@ -3575,7 +3625,7 @@
       </c>
       <c r="T3" s="68"/>
     </row>
-    <row r="4" spans="1:20" s="79" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20" s="79" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="79" t="s">
         <v>588</v>
       </c>
@@ -3621,7 +3671,7 @@
       </c>
       <c r="T4" s="80"/>
     </row>
-    <row r="5" spans="1:20" s="67" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" s="67" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="67" t="s">
         <v>70</v>
       </c>
@@ -3663,17 +3713,17 @@
         <v>25</v>
       </c>
       <c r="N5" s="97" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="O5" s="97" t="s">
+        <v>636</v>
+      </c>
+      <c r="P5" s="98" t="s">
         <v>637</v>
       </c>
-      <c r="P5" s="98" t="s">
-        <v>638</v>
-      </c>
       <c r="T5" s="68"/>
     </row>
-    <row r="6" spans="1:20" s="67" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" s="67" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="67" t="s">
         <v>111</v>
       </c>
@@ -3717,17 +3767,17 @@
         <v>22</v>
       </c>
       <c r="N6" s="97" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="O6" s="97" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="P6" s="98" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="T6" s="68"/>
     </row>
-    <row r="7" spans="1:20" s="67" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" s="67" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="67" t="s">
         <v>175</v>
       </c>
@@ -3769,17 +3819,17 @@
         <v>22</v>
       </c>
       <c r="N7" s="97" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="O7" s="97" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="P7" s="98" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="T7" s="68"/>
     </row>
-    <row r="8" spans="1:20" s="67" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" s="67" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="67" t="s">
         <v>41</v>
       </c>
@@ -3821,17 +3871,17 @@
         <v>22</v>
       </c>
       <c r="N8" s="97" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="O8" s="97" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="P8" s="98" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="T8" s="68"/>
     </row>
-    <row r="9" spans="1:20" s="67" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" s="67" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="67" t="s">
         <v>115</v>
       </c>
@@ -3873,18 +3923,18 @@
         <v>22</v>
       </c>
       <c r="N9" s="97" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="O9" s="97" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="P9" s="98" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="S9" s="96"/>
       <c r="T9" s="68"/>
     </row>
-    <row r="10" spans="1:20" s="67" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" s="67" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="67" t="s">
         <v>70</v>
       </c>
@@ -3926,17 +3976,17 @@
         <v>25</v>
       </c>
       <c r="N10" s="97" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="O10" s="97" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="P10" s="98" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="T10" s="68"/>
     </row>
-    <row r="11" spans="1:20" s="67" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" s="67" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="67" t="s">
         <v>65</v>
       </c>
@@ -3978,20 +4028,20 @@
         <v>25</v>
       </c>
       <c r="N11" s="97" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="O11" s="97" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="P11" s="98" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="S11" s="67" t="s">
         <v>599</v>
       </c>
       <c r="T11" s="68"/>
     </row>
-    <row r="12" spans="1:20" s="67" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:20" s="67" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="67" t="s">
         <v>108</v>
       </c>
@@ -4033,18 +4083,18 @@
         <v>25</v>
       </c>
       <c r="N12" s="97" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="O12" s="97" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="P12" s="98" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="S12" s="99"/>
       <c r="T12" s="68"/>
     </row>
-    <row r="13" spans="1:20" s="67" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" s="67" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="67" t="s">
         <v>132</v>
       </c>
@@ -4090,7 +4140,7 @@
       <c r="P13" s="98"/>
       <c r="T13" s="68"/>
     </row>
-    <row r="14" spans="1:20" s="67" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:20" s="67" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="67" t="s">
         <v>110</v>
       </c>
@@ -4132,17 +4182,17 @@
         <v>25</v>
       </c>
       <c r="N14" s="97" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="O14" s="97" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="P14" s="98" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="T14" s="68"/>
     </row>
-    <row r="15" spans="1:20" s="67" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" s="67" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="67" t="s">
         <v>132</v>
       </c>
@@ -4184,13 +4234,13 @@
         <v>25</v>
       </c>
       <c r="N15" s="97" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="O15" s="97"/>
       <c r="P15" s="98"/>
       <c r="T15" s="68"/>
     </row>
-    <row r="16" spans="1:20" s="67" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" s="67" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="67" t="s">
         <v>108</v>
       </c>
@@ -4203,10 +4253,10 @@
         <v>DMA 0904</v>
       </c>
       <c r="D16" s="67" t="s">
+        <v>621</v>
+      </c>
+      <c r="E16" s="69" t="s">
         <v>622</v>
-      </c>
-      <c r="E16" s="69" t="s">
-        <v>623</v>
       </c>
       <c r="F16" s="69" t="s">
         <v>586</v>
@@ -4234,17 +4284,17 @@
         <v>24</v>
       </c>
       <c r="N16" s="97" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="O16" s="97" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="P16" s="98" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="T16" s="68"/>
     </row>
-    <row r="17" spans="1:20" s="67" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:20" s="67" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="67" t="s">
         <v>110</v>
       </c>
@@ -4257,10 +4307,10 @@
         <v>DMA 0904</v>
       </c>
       <c r="D17" s="67" t="s">
+        <v>621</v>
+      </c>
+      <c r="E17" s="69" t="s">
         <v>622</v>
-      </c>
-      <c r="E17" s="69" t="s">
-        <v>623</v>
       </c>
       <c r="F17" s="69" t="s">
         <v>597</v>
@@ -4288,17 +4338,17 @@
         <v>24</v>
       </c>
       <c r="N17" s="97" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="O17" s="97" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="P17" s="98" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="T17" s="68"/>
     </row>
-    <row r="18" spans="1:20" s="67" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:20" s="67" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="67" t="s">
         <v>132</v>
       </c>
@@ -4311,13 +4361,13 @@
         <v>DMA 0904</v>
       </c>
       <c r="D18" s="67" t="s">
+        <v>621</v>
+      </c>
+      <c r="E18" s="69" t="s">
         <v>622</v>
       </c>
-      <c r="E18" s="69" t="s">
+      <c r="F18" s="69" t="s">
         <v>623</v>
-      </c>
-      <c r="F18" s="69" t="s">
-        <v>624</v>
       </c>
       <c r="G18" s="70" t="str">
         <f>VLOOKUP(C18,Course!$A$2:$B$203,2,TRUE)</f>
@@ -4346,7 +4396,7 @@
       <c r="P18" s="98"/>
       <c r="T18" s="68"/>
     </row>
-    <row r="19" spans="1:20" s="67" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:20" s="67" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="67" t="s">
         <v>132</v>
       </c>
@@ -4359,13 +4409,13 @@
         <v>DMA 0904</v>
       </c>
       <c r="D19" s="67" t="s">
+        <v>621</v>
+      </c>
+      <c r="E19" s="69" t="s">
         <v>622</v>
       </c>
-      <c r="E19" s="69" t="s">
-        <v>623</v>
-      </c>
       <c r="F19" s="69" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="G19" s="70" t="str">
         <f>VLOOKUP(C19,Course!$A$2:$B$203,2,TRUE)</f>
@@ -4394,7 +4444,7 @@
       <c r="P19" s="98"/>
       <c r="T19" s="68"/>
     </row>
-    <row r="20" spans="1:20" s="67" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:20" s="67" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="67" t="s">
         <v>132</v>
       </c>
@@ -4407,10 +4457,10 @@
         <v>DMA 0905</v>
       </c>
       <c r="D20" s="67" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="E20" s="69" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="F20" s="69" t="s">
         <v>601</v>
@@ -4442,7 +4492,7 @@
       <c r="P20" s="98"/>
       <c r="T20" s="68"/>
     </row>
-    <row r="21" spans="1:20" s="67" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:20" s="67" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="67" t="s">
         <v>77</v>
       </c>
@@ -4455,10 +4505,10 @@
         <v>DMA 0905</v>
       </c>
       <c r="D21" s="67" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="E21" s="69" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="F21" s="69" t="s">
         <v>597</v>
@@ -4486,17 +4536,17 @@
         <v>24</v>
       </c>
       <c r="N21" s="97" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="O21" s="97" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="P21" s="98" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="T21" s="68"/>
     </row>
-    <row r="22" spans="1:20" s="67" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:20" s="67" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="67" t="s">
         <v>132</v>
       </c>
@@ -4509,10 +4559,10 @@
         <v>EMG 1040</v>
       </c>
       <c r="D22" s="67" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="E22" s="69" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="F22" s="69" t="s">
         <v>601</v>
@@ -4543,7 +4593,7 @@
       <c r="P22" s="69"/>
       <c r="T22" s="68"/>
     </row>
-    <row r="23" spans="1:20" s="67" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:20" s="67" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="67" t="s">
         <v>132</v>
       </c>
@@ -4554,7 +4604,7 @@
         <v>245</v>
       </c>
       <c r="D23" s="67" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="E23" s="69">
         <v>2040</v>
@@ -4589,7 +4639,7 @@
       <c r="P23" s="98"/>
       <c r="T23" s="68"/>
     </row>
-    <row r="24" spans="1:20" s="67" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:20" s="67" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="67" t="s">
         <v>132</v>
       </c>
@@ -4602,10 +4652,10 @@
         <v>EMG 2040</v>
       </c>
       <c r="D24" s="67" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="E24" s="69" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="F24" s="69" t="s">
         <v>601</v>
@@ -4636,7 +4686,7 @@
       <c r="P24" s="69"/>
       <c r="T24" s="68"/>
     </row>
-    <row r="25" spans="1:20" s="67" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:20" s="67" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="67" t="s">
         <v>132</v>
       </c>
@@ -4683,7 +4733,7 @@
       <c r="S25" s="72"/>
       <c r="T25" s="68"/>
     </row>
-    <row r="26" spans="1:20" s="67" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:20" s="67" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="67" t="s">
         <v>132</v>
       </c>
@@ -4731,7 +4781,7 @@
       <c r="S26" s="72"/>
       <c r="T26" s="68"/>
     </row>
-    <row r="27" spans="1:20" s="67" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:20" s="67" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="67" t="s">
         <v>132</v>
       </c>
@@ -4778,7 +4828,7 @@
       <c r="S27" s="72"/>
       <c r="T27" s="68"/>
     </row>
-    <row r="28" spans="1:20" s="67" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:20" s="67" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="67" t="s">
         <v>132</v>
       </c>
@@ -4825,7 +4875,7 @@
       <c r="S28" s="72"/>
       <c r="T28" s="68"/>
     </row>
-    <row r="29" spans="1:20" s="67" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:20" s="67" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="67" t="s">
         <v>132</v>
       </c>
@@ -4871,7 +4921,7 @@
       <c r="P29" s="98"/>
       <c r="T29" s="68"/>
     </row>
-    <row r="30" spans="1:20" s="67" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:20" s="67" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="67" t="s">
         <v>70</v>
       </c>
@@ -4884,10 +4934,10 @@
         <v>MAT 1004</v>
       </c>
       <c r="D30" s="67" t="s">
+        <v>626</v>
+      </c>
+      <c r="E30" s="69" t="s">
         <v>627</v>
-      </c>
-      <c r="E30" s="69" t="s">
-        <v>628</v>
       </c>
       <c r="F30" s="69" t="s">
         <v>586</v>
@@ -4915,17 +4965,17 @@
         <v>32</v>
       </c>
       <c r="N30" s="97" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="O30" s="97" t="s">
+        <v>646</v>
+      </c>
+      <c r="P30" s="98" t="s">
         <v>647</v>
       </c>
-      <c r="P30" s="98" t="s">
-        <v>648</v>
-      </c>
       <c r="T30" s="68"/>
     </row>
-    <row r="31" spans="1:20" s="67" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:20" s="67" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="67" t="s">
         <v>174</v>
       </c>
@@ -4938,10 +4988,10 @@
         <v>MAT 1004</v>
       </c>
       <c r="D31" s="67" t="s">
+        <v>626</v>
+      </c>
+      <c r="E31" s="69" t="s">
         <v>627</v>
-      </c>
-      <c r="E31" s="69" t="s">
-        <v>628</v>
       </c>
       <c r="F31" s="69" t="s">
         <v>597</v>
@@ -4969,17 +5019,17 @@
         <v>32</v>
       </c>
       <c r="N31" s="97" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="O31" s="97" t="s">
+        <v>646</v>
+      </c>
+      <c r="P31" s="98" t="s">
         <v>647</v>
       </c>
-      <c r="P31" s="98" t="s">
-        <v>648</v>
-      </c>
       <c r="T31" s="68"/>
     </row>
-    <row r="32" spans="1:20" s="67" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:20" s="67" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="67" t="s">
         <v>40</v>
       </c>
@@ -4992,10 +5042,10 @@
         <v>MAT 1004</v>
       </c>
       <c r="D32" s="67" t="s">
+        <v>626</v>
+      </c>
+      <c r="E32" s="69" t="s">
         <v>627</v>
-      </c>
-      <c r="E32" s="69" t="s">
-        <v>628</v>
       </c>
       <c r="F32" s="69" t="s">
         <v>611</v>
@@ -5023,20 +5073,20 @@
         <v>32</v>
       </c>
       <c r="N32" s="97" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="O32" s="97" t="s">
+        <v>646</v>
+      </c>
+      <c r="P32" s="98" t="s">
         <v>647</v>
-      </c>
-      <c r="P32" s="98" t="s">
-        <v>648</v>
       </c>
       <c r="S32" s="95" t="s">
         <v>598</v>
       </c>
       <c r="T32" s="68"/>
     </row>
-    <row r="33" spans="1:20" s="67" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:20" s="67" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="67" t="s">
         <v>132</v>
       </c>
@@ -5049,13 +5099,13 @@
         <v>MAT 1004</v>
       </c>
       <c r="D33" s="67" t="s">
+        <v>626</v>
+      </c>
+      <c r="E33" s="69" t="s">
         <v>627</v>
       </c>
-      <c r="E33" s="69" t="s">
-        <v>628</v>
-      </c>
       <c r="F33" s="69" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="G33" s="70" t="str">
         <f>VLOOKUP(C33,Course!$A$2:$B$203,2,TRUE)</f>
@@ -5084,7 +5134,7 @@
       <c r="P33" s="98"/>
       <c r="T33" s="68"/>
     </row>
-    <row r="34" spans="1:20" s="67" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:20" s="67" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="67" t="s">
         <v>132</v>
       </c>
@@ -5097,13 +5147,13 @@
         <v>MAT 1004</v>
       </c>
       <c r="D34" s="67" t="s">
+        <v>626</v>
+      </c>
+      <c r="E34" s="69" t="s">
         <v>627</v>
       </c>
-      <c r="E34" s="69" t="s">
+      <c r="F34" s="69" t="s">
         <v>628</v>
-      </c>
-      <c r="F34" s="69" t="s">
-        <v>629</v>
       </c>
       <c r="G34" s="70" t="str">
         <f>VLOOKUP(C34,Course!$A$2:$B$203,2,TRUE)</f>
@@ -5132,7 +5182,7 @@
       <c r="P34" s="98"/>
       <c r="T34" s="68"/>
     </row>
-    <row r="35" spans="1:20" s="67" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:20" s="67" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="67" t="s">
         <v>36</v>
       </c>
@@ -5145,10 +5195,10 @@
         <v>MAT 1005</v>
       </c>
       <c r="D35" s="67" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E35" s="69" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="F35" s="69" t="s">
         <v>586</v>
@@ -5176,17 +5226,17 @@
         <v>25</v>
       </c>
       <c r="N35" s="97" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="O35" s="97" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="P35" s="98" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="T35" s="68"/>
     </row>
-    <row r="36" spans="1:20" s="67" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:20" s="67" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="67" t="s">
         <v>81</v>
       </c>
@@ -5199,10 +5249,10 @@
         <v>MAT 1005</v>
       </c>
       <c r="D36" s="67" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E36" s="69" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="F36" s="69" t="s">
         <v>597</v>
@@ -5230,17 +5280,17 @@
         <v>25</v>
       </c>
       <c r="N36" s="97" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="O36" s="97" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="P36" s="98" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="T36" s="68"/>
     </row>
-    <row r="37" spans="1:20" s="67" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:20" s="67" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="67" t="s">
         <v>132</v>
       </c>
@@ -5253,13 +5303,13 @@
         <v>MAT 1005</v>
       </c>
       <c r="D37" s="67" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E37" s="69" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="F37" s="69" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="G37" s="70" t="str">
         <f>VLOOKUP(C37,Course!$A$2:$B$203,2,TRUE)</f>
@@ -5288,7 +5338,7 @@
       <c r="P37" s="98"/>
       <c r="T37" s="68"/>
     </row>
-    <row r="38" spans="1:20" s="67" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:20" s="67" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="67" t="s">
         <v>76</v>
       </c>
@@ -5301,10 +5351,10 @@
         <v>MAT 1205</v>
       </c>
       <c r="D38" s="67" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E38" s="69" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="F38" s="69" t="s">
         <v>586</v>
@@ -5332,17 +5382,17 @@
         <v>25</v>
       </c>
       <c r="N38" s="97" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="O38" s="97" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="P38" s="98" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="T38" s="68"/>
     </row>
-    <row r="39" spans="1:20" s="67" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:20" s="67" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="67" t="s">
         <v>75</v>
       </c>
@@ -5355,10 +5405,10 @@
         <v>MAT 1205</v>
       </c>
       <c r="D39" s="67" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E39" s="69" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="F39" s="69" t="s">
         <v>586</v>
@@ -5386,17 +5436,17 @@
         <v>25</v>
       </c>
       <c r="N39" s="97" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="O39" s="97" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="P39" s="98" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="T39" s="68"/>
     </row>
-    <row r="40" spans="1:20" s="67" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:20" s="67" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="67" t="s">
         <v>76</v>
       </c>
@@ -5409,10 +5459,10 @@
         <v>MAT 1206</v>
       </c>
       <c r="D40" s="67" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E40" s="69" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="F40" s="69" t="s">
         <v>586</v>
@@ -5440,17 +5490,17 @@
         <v>25</v>
       </c>
       <c r="N40" s="97" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="O40" s="97" t="s">
         <v>0</v>
       </c>
       <c r="P40" s="98" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="T40" s="68"/>
     </row>
-    <row r="41" spans="1:20" s="67" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:20" s="67" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="67" t="s">
         <v>75</v>
       </c>
@@ -5463,10 +5513,10 @@
         <v>MAT 1206</v>
       </c>
       <c r="D41" s="67" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E41" s="69" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="F41" s="69" t="s">
         <v>586</v>
@@ -5494,17 +5544,17 @@
         <v>25</v>
       </c>
       <c r="N41" s="97" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="O41" s="97" t="s">
         <v>0</v>
       </c>
       <c r="P41" s="98" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="T41" s="68"/>
     </row>
-    <row r="42" spans="1:20" s="67" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:20" s="67" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="67" t="s">
         <v>74</v>
       </c>
@@ -5517,10 +5567,10 @@
         <v>MAT 1301</v>
       </c>
       <c r="D42" s="67" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E42" s="69" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="F42" s="69" t="s">
         <v>586</v>
@@ -5548,17 +5598,17 @@
         <v>25</v>
       </c>
       <c r="N42" s="97" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="O42" s="97" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="P42" s="98" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="T42" s="68"/>
     </row>
-    <row r="43" spans="1:20" s="67" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:20" s="67" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="67" t="s">
         <v>73</v>
       </c>
@@ -5571,10 +5621,10 @@
         <v>MAT 1301</v>
       </c>
       <c r="D43" s="67" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E43" s="69" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="F43" s="69" t="s">
         <v>586</v>
@@ -5602,17 +5652,17 @@
         <v>25</v>
       </c>
       <c r="N43" s="97" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="O43" s="97" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="P43" s="98" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="T43" s="68"/>
     </row>
-    <row r="44" spans="1:20" s="67" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:20" s="67" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="67" t="s">
         <v>91</v>
       </c>
@@ -5625,10 +5675,10 @@
         <v>MAT 2203</v>
       </c>
       <c r="D44" s="67" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E44" s="69" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="F44" s="69" t="s">
         <v>586</v>
@@ -5656,17 +5706,17 @@
         <v>25</v>
       </c>
       <c r="N44" s="97" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="O44" s="97" t="s">
+        <v>646</v>
+      </c>
+      <c r="P44" s="98" t="s">
         <v>647</v>
       </c>
-      <c r="P44" s="98" t="s">
-        <v>648</v>
-      </c>
       <c r="T44" s="68"/>
     </row>
-    <row r="45" spans="1:20" s="67" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:20" s="67" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="67" t="s">
         <v>73</v>
       </c>
@@ -5679,10 +5729,10 @@
         <v>MAT 2302</v>
       </c>
       <c r="D45" s="67" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E45" s="69" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="F45" s="69" t="s">
         <v>586</v>
@@ -5710,17 +5760,17 @@
         <v>25</v>
       </c>
       <c r="N45" s="97" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="O45" s="97" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="P45" s="98" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="T45" s="68"/>
     </row>
-    <row r="46" spans="1:20" s="67" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:20" s="67" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="67" t="s">
         <v>74</v>
       </c>
@@ -5733,10 +5783,10 @@
         <v>MAT 2302</v>
       </c>
       <c r="D46" s="67" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E46" s="69" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="F46" s="69" t="s">
         <v>586</v>
@@ -5764,17 +5814,17 @@
         <v>25</v>
       </c>
       <c r="N46" s="97" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="O46" s="97" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="P46" s="98" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="T46" s="68"/>
     </row>
-    <row r="47" spans="1:20" s="67" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:20" s="67" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="67" t="s">
         <v>132</v>
       </c>
@@ -5820,7 +5870,7 @@
       <c r="P47" s="98"/>
       <c r="T47" s="68"/>
     </row>
-    <row r="48" spans="1:20" s="67" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:20" s="67" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B48" s="67" t="s">
         <v>539</v>
       </c>
@@ -5856,18 +5906,18 @@
         <v>24</v>
       </c>
       <c r="N48" s="97" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="O48" s="97" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="P48" s="98" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="S48" s="100"/>
       <c r="T48" s="68"/>
     </row>
-    <row r="49" spans="1:20" s="67" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:20" s="67" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="67" t="s">
         <v>123</v>
       </c>
@@ -5906,17 +5956,17 @@
         <v>24</v>
       </c>
       <c r="N49" s="97" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="O49" s="97" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="P49" s="98" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="T49" s="68"/>
     </row>
-    <row r="50" spans="1:20" s="67" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:20" s="67" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="67" t="s">
         <v>92</v>
       </c>
@@ -5958,17 +6008,17 @@
         <v>18</v>
       </c>
       <c r="N50" s="97" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="O50" s="97" t="s">
+        <v>646</v>
+      </c>
+      <c r="P50" s="98" t="s">
         <v>647</v>
       </c>
-      <c r="P50" s="98" t="s">
-        <v>648</v>
-      </c>
       <c r="T50" s="68"/>
     </row>
-    <row r="51" spans="1:20" s="67" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:20" s="67" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="67" t="s">
         <v>67</v>
       </c>
@@ -6010,17 +6060,17 @@
         <v>18</v>
       </c>
       <c r="N51" s="97" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="O51" s="97" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="P51" s="98" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="T51" s="68"/>
     </row>
-    <row r="52" spans="1:20" s="67" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:20" s="67" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="67" t="s">
         <v>114</v>
       </c>
@@ -6062,17 +6112,17 @@
         <v>18</v>
       </c>
       <c r="N52" s="97" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="O52" s="97" t="s">
+        <v>646</v>
+      </c>
+      <c r="P52" s="98" t="s">
         <v>647</v>
       </c>
-      <c r="P52" s="98" t="s">
-        <v>648</v>
-      </c>
       <c r="T52" s="68"/>
     </row>
-    <row r="53" spans="1:20" s="67" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:20" s="67" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="67" t="s">
         <v>127</v>
       </c>
@@ -6114,17 +6164,17 @@
         <v>18</v>
       </c>
       <c r="N53" s="97" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="O53" s="97" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="P53" s="98" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="T53" s="68"/>
     </row>
-    <row r="54" spans="1:20" s="67" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:20" s="67" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="67" t="s">
         <v>72</v>
       </c>
@@ -6166,17 +6216,17 @@
         <v>18</v>
       </c>
       <c r="N54" s="97" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="O54" s="97" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="P54" s="98" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="T54" s="68"/>
     </row>
-    <row r="55" spans="1:20" s="67" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:20" s="67" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="67" t="s">
         <v>124</v>
       </c>
@@ -6218,17 +6268,17 @@
         <v>18</v>
       </c>
       <c r="N55" s="97" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="O55" s="97" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="P55" s="98" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="T55" s="68"/>
     </row>
-    <row r="56" spans="1:20" s="67" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:20" s="67" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="67" t="s">
         <v>51</v>
       </c>
@@ -6270,17 +6320,17 @@
         <v>18</v>
       </c>
       <c r="N56" s="97" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="O56" s="97" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="P56" s="98" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="T56" s="68"/>
     </row>
-    <row r="57" spans="1:20" s="67" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:20" s="67" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="67" t="s">
         <v>110</v>
       </c>
@@ -6322,18 +6372,18 @@
         <v>18</v>
       </c>
       <c r="N57" s="97" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="O57" s="97" t="s">
         <v>0</v>
       </c>
       <c r="P57" s="98" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="S57" s="96"/>
       <c r="T57" s="68"/>
     </row>
-    <row r="58" spans="1:20" s="67" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:20" s="67" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="67" t="s">
         <v>70</v>
       </c>
@@ -6350,7 +6400,7 @@
         <v>1050</v>
       </c>
       <c r="F58" s="69" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="G58" s="70" t="str">
         <f>VLOOKUP(C58,Course!$A$2:$B$203,2,TRUE)</f>
@@ -6375,17 +6425,17 @@
         <v>18</v>
       </c>
       <c r="N58" s="97" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="O58" s="97" t="s">
+        <v>646</v>
+      </c>
+      <c r="P58" s="98" t="s">
         <v>647</v>
       </c>
-      <c r="P58" s="98" t="s">
-        <v>648</v>
-      </c>
       <c r="T58" s="68"/>
     </row>
-    <row r="59" spans="1:20" s="67" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:20" s="67" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="67" t="s">
         <v>118</v>
       </c>
@@ -6402,7 +6452,7 @@
         <v>1050</v>
       </c>
       <c r="F59" s="69" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="G59" s="70" t="str">
         <f>VLOOKUP(C59,Course!$A$2:$B$203,2,TRUE)</f>
@@ -6427,22 +6477,22 @@
         <v>18</v>
       </c>
       <c r="N59" s="97" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="O59" s="97" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="P59" s="98" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="T59" s="68"/>
     </row>
-    <row r="60" spans="1:20" s="67" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:20" s="67" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="67" t="s">
         <v>132</v>
       </c>
       <c r="B60" s="67" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C60" s="67" t="s">
         <v>299</v>
@@ -6454,14 +6504,14 @@
         <v>1050</v>
       </c>
       <c r="F60" s="69" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="G60" s="70" t="str">
         <f>VLOOKUP(C60,Course!$A$2:$B$203,2,TRUE)</f>
         <v>Introduction to Biology I</v>
       </c>
       <c r="H60" s="67" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="J60" s="71" t="str">
         <f>VLOOKUP(A60,Blocks!$A$5:$E$137,2,FALSE)</f>
@@ -6483,12 +6533,12 @@
       <c r="P60" s="98"/>
       <c r="T60" s="68"/>
     </row>
-    <row r="61" spans="1:20" s="67" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:20" s="67" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="67" t="s">
         <v>132</v>
       </c>
       <c r="B61" s="67" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C61" s="67" t="s">
         <v>299</v>
@@ -6500,14 +6550,14 @@
         <v>1050</v>
       </c>
       <c r="F61" s="69" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="G61" s="70" t="str">
         <f>VLOOKUP(C61,Course!$A$2:$B$203,2,TRUE)</f>
         <v>Introduction to Biology I</v>
       </c>
       <c r="H61" s="67" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="J61" s="71" t="str">
         <f>VLOOKUP(A61,Blocks!$A$5:$E$137,2,FALSE)</f>
@@ -6532,7 +6582,7 @@
       </c>
       <c r="T61" s="68"/>
     </row>
-    <row r="62" spans="1:20" s="67" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:20" s="67" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="67" t="s">
         <v>36</v>
       </c>
@@ -6574,17 +6624,17 @@
         <v>24</v>
       </c>
       <c r="N62" s="97" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="O62" s="97" t="s">
+        <v>646</v>
+      </c>
+      <c r="P62" s="98" t="s">
         <v>647</v>
       </c>
-      <c r="P62" s="98" t="s">
-        <v>648</v>
-      </c>
       <c r="T62" s="68"/>
     </row>
-    <row r="63" spans="1:20" s="67" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:20" s="67" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="67" t="s">
         <v>60</v>
       </c>
@@ -6626,17 +6676,17 @@
         <v>24</v>
       </c>
       <c r="N63" s="97" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="O63" s="97" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="P63" s="98" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="T63" s="68"/>
     </row>
-    <row r="64" spans="1:20" s="67" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:20" s="67" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="67" t="s">
         <v>108</v>
       </c>
@@ -6678,17 +6728,17 @@
         <v>24</v>
       </c>
       <c r="N64" s="97" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="O64" s="97" t="s">
+        <v>646</v>
+      </c>
+      <c r="P64" s="98" t="s">
         <v>647</v>
       </c>
-      <c r="P64" s="98" t="s">
-        <v>648</v>
-      </c>
       <c r="T64" s="68"/>
     </row>
-    <row r="65" spans="1:20" s="67" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:20" s="67" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="67" t="s">
         <v>54</v>
       </c>
@@ -6730,17 +6780,17 @@
         <v>24</v>
       </c>
       <c r="N65" s="97" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="O65" s="97" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="P65" s="98" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="T65" s="68"/>
     </row>
-    <row r="66" spans="1:20" s="67" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:20" s="67" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="67" t="s">
         <v>71</v>
       </c>
@@ -6782,17 +6832,17 @@
         <v>24</v>
       </c>
       <c r="N66" s="97" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="O66" s="97" t="s">
+        <v>646</v>
+      </c>
+      <c r="P66" s="98" t="s">
         <v>647</v>
       </c>
-      <c r="P66" s="98" t="s">
-        <v>648</v>
-      </c>
       <c r="T66" s="68"/>
     </row>
-    <row r="67" spans="1:20" s="67" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:20" s="67" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="67" t="s">
         <v>84</v>
       </c>
@@ -6834,17 +6884,17 @@
         <v>24</v>
       </c>
       <c r="N67" s="97" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="O67" s="97" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="P67" s="98" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="T67" s="68"/>
     </row>
-    <row r="68" spans="1:20" s="67" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:20" s="67" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="67" t="s">
         <v>72</v>
       </c>
@@ -6886,17 +6936,17 @@
         <v>24</v>
       </c>
       <c r="N68" s="97" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="O68" s="97" t="s">
+        <v>646</v>
+      </c>
+      <c r="P68" s="98" t="s">
         <v>647</v>
       </c>
-      <c r="P68" s="98" t="s">
-        <v>648</v>
-      </c>
       <c r="T68" s="68"/>
     </row>
-    <row r="69" spans="1:20" s="67" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:20" s="67" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="67" t="s">
         <v>122</v>
       </c>
@@ -6938,17 +6988,17 @@
         <v>24</v>
       </c>
       <c r="N69" s="97" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="O69" s="97" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="P69" s="98" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="T69" s="68"/>
     </row>
-    <row r="70" spans="1:20" s="67" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:20" s="67" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B70" s="67" t="s">
         <v>613</v>
       </c>
@@ -6984,17 +7034,17 @@
         <v>18</v>
       </c>
       <c r="N70" s="97" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="O70" s="97" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="P70" s="98" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="T70" s="68"/>
     </row>
-    <row r="71" spans="1:20" s="67" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:20" s="67" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="67" t="s">
         <v>156</v>
       </c>
@@ -7036,17 +7086,17 @@
         <v>24</v>
       </c>
       <c r="N71" s="97" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="O71" s="97" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="P71" s="98" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="T71" s="68"/>
     </row>
-    <row r="72" spans="1:20" s="67" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:20" s="67" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="67" t="s">
         <v>132</v>
       </c>
@@ -7092,7 +7142,7 @@
       <c r="P72" s="98"/>
       <c r="T72" s="68"/>
     </row>
-    <row r="73" spans="1:20" s="67" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:20" s="67" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="67" t="s">
         <v>124</v>
       </c>
@@ -7134,13 +7184,13 @@
         <v>18</v>
       </c>
       <c r="N73" s="97" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="O73" s="97"/>
       <c r="P73" s="98"/>
       <c r="T73" s="68"/>
     </row>
-    <row r="74" spans="1:20" s="67" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:20" s="67" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="67" t="s">
         <v>53</v>
       </c>
@@ -7182,17 +7232,17 @@
         <v>24</v>
       </c>
       <c r="N74" s="97" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="O74" s="97" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="P74" s="98" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="T74" s="68"/>
     </row>
-    <row r="75" spans="1:20" s="67" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:20" s="67" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="67" t="s">
         <v>111</v>
       </c>
@@ -7234,17 +7284,17 @@
         <v>24</v>
       </c>
       <c r="N75" s="97" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="O75" s="97" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="P75" s="98" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="T75" s="68"/>
     </row>
-    <row r="76" spans="1:20" s="67" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:20" s="67" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="67" t="s">
         <v>144</v>
       </c>
@@ -7286,17 +7336,17 @@
         <v>24</v>
       </c>
       <c r="N76" s="97" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="O76" s="97" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="P76" s="98" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="T76" s="68"/>
     </row>
-    <row r="77" spans="1:20" s="67" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:20" s="67" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="67" t="s">
         <v>111</v>
       </c>
@@ -7338,17 +7388,17 @@
         <v>24</v>
       </c>
       <c r="N77" s="97" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="O77" s="97" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="P77" s="98" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="T77" s="68"/>
     </row>
-    <row r="78" spans="1:20" s="67" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:20" s="67" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="67" t="s">
         <v>71</v>
       </c>
@@ -7390,17 +7440,17 @@
         <v>24</v>
       </c>
       <c r="N78" s="97" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="O78" s="97" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="P78" s="98" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="T78" s="68"/>
     </row>
-    <row r="79" spans="1:20" s="67" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:20" s="67" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="67" t="s">
         <v>120</v>
       </c>
@@ -7439,17 +7489,17 @@
         <v>24</v>
       </c>
       <c r="N79" s="97" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="O79" s="97" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="P79" s="98" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="T79" s="68"/>
     </row>
-    <row r="80" spans="1:20" s="67" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:20" s="67" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B80" s="67" t="s">
         <v>521</v>
       </c>
@@ -7485,22 +7535,22 @@
         <v>24</v>
       </c>
       <c r="N80" s="97" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="O80" s="97" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="P80" s="98" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="T80" s="68"/>
     </row>
-    <row r="81" spans="1:20" s="67" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:20" s="67" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="67" t="s">
         <v>132</v>
       </c>
       <c r="B81" s="67" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="C81" s="67" t="s">
         <v>316</v>
@@ -7519,7 +7569,7 @@
         <v>Contemporary Health</v>
       </c>
       <c r="H81" s="67" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="J81" s="71" t="str">
         <f>VLOOKUP(A81,Blocks!$A$5:$E$137,2,FALSE)</f>
@@ -7541,7 +7591,7 @@
       <c r="P81" s="98"/>
       <c r="T81" s="68"/>
     </row>
-    <row r="82" spans="1:20" s="67" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:20" s="67" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="67" t="s">
         <v>114</v>
       </c>
@@ -7583,17 +7633,17 @@
         <v>24</v>
       </c>
       <c r="N82" s="97" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="O82" s="97" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="P82" s="98" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="T82" s="68"/>
     </row>
-    <row r="83" spans="1:20" s="67" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:20" s="67" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="67" t="s">
         <v>161</v>
       </c>
@@ -7635,17 +7685,17 @@
         <v>24</v>
       </c>
       <c r="N83" s="97" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="O83" s="97" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="P83" s="98" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="T83" s="68"/>
     </row>
-    <row r="84" spans="1:20" s="67" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:20" s="67" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="67" t="s">
         <v>614</v>
       </c>
@@ -7659,7 +7709,7 @@
         <v>587</v>
       </c>
       <c r="E84" s="69" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="F84" s="69" t="s">
         <v>586</v>
@@ -7674,8 +7724,8 @@
       <c r="J84" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="K84" s="71" t="s">
-        <v>615</v>
+      <c r="K84" s="71">
+        <v>0.33333333333333331</v>
       </c>
       <c r="L84" s="71">
         <v>0.3888888888888889</v>
@@ -7684,18 +7734,18 @@
         <v>24</v>
       </c>
       <c r="N84" s="97" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="O84" s="97" t="s">
+        <v>646</v>
+      </c>
+      <c r="P84" s="98" t="s">
         <v>647</v>
-      </c>
-      <c r="P84" s="98" t="s">
-        <v>648</v>
       </c>
       <c r="S84" s="96"/>
       <c r="T84" s="68"/>
     </row>
-    <row r="85" spans="1:20" s="67" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:20" s="67" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="67" t="s">
         <v>57</v>
       </c>
@@ -7709,7 +7759,7 @@
         <v>587</v>
       </c>
       <c r="E85" s="69" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="F85" s="69" t="s">
         <v>586</v>
@@ -7737,17 +7787,17 @@
         <v>24</v>
       </c>
       <c r="N85" s="97" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="O85" s="97" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="P85" s="98" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="T85" s="68"/>
     </row>
-    <row r="86" spans="1:20" s="67" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:20" s="67" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="67" t="s">
         <v>70</v>
       </c>
@@ -7789,17 +7839,17 @@
         <v>24</v>
       </c>
       <c r="N86" s="97" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="O86" s="97" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="P86" s="98" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="T86" s="68"/>
     </row>
-    <row r="87" spans="1:20" s="67" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:20" s="67" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="67" t="s">
         <v>124</v>
       </c>
@@ -7841,17 +7891,17 @@
         <v>24</v>
       </c>
       <c r="N87" s="97" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="O87" s="97" t="s">
         <v>0</v>
       </c>
       <c r="P87" s="98" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="T87" s="68"/>
     </row>
-    <row r="88" spans="1:20" s="67" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:20" s="67" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="67" t="s">
         <v>110</v>
       </c>
@@ -7893,17 +7943,17 @@
         <v>24</v>
       </c>
       <c r="N88" s="97" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="O88" s="97" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="P88" s="98" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="T88" s="68"/>
     </row>
-    <row r="89" spans="1:20" s="67" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:20" s="67" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="67" t="s">
         <v>83</v>
       </c>
@@ -7945,17 +7995,17 @@
         <v>24</v>
       </c>
       <c r="N89" s="97" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="O89" s="97" t="s">
         <v>0</v>
       </c>
       <c r="P89" s="98" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="T89" s="68"/>
     </row>
-    <row r="90" spans="1:20" s="67" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:20" s="67" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="67" t="s">
         <v>65</v>
       </c>
@@ -7997,17 +8047,17 @@
         <v>24</v>
       </c>
       <c r="N90" s="97" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="O90" s="97" t="s">
+        <v>646</v>
+      </c>
+      <c r="P90" s="98" t="s">
         <v>647</v>
       </c>
-      <c r="P90" s="98" t="s">
-        <v>648</v>
-      </c>
       <c r="T90" s="68"/>
     </row>
-    <row r="91" spans="1:20" s="67" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:20" s="67" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="67" t="s">
         <v>119</v>
       </c>
@@ -8049,18 +8099,18 @@
         <v>24</v>
       </c>
       <c r="N91" s="97" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="O91" s="97" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="P91" s="98" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="S91" s="99"/>
       <c r="T91" s="68"/>
     </row>
-    <row r="92" spans="1:20" s="67" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:20" s="67" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="67" t="s">
         <v>89</v>
       </c>
@@ -8101,17 +8151,17 @@
         <v>24</v>
       </c>
       <c r="N92" s="97" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="O92" s="97" t="s">
+        <v>646</v>
+      </c>
+      <c r="P92" s="98" t="s">
         <v>647</v>
       </c>
-      <c r="P92" s="98" t="s">
-        <v>648</v>
-      </c>
       <c r="T92" s="68"/>
     </row>
-    <row r="93" spans="1:20" s="67" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:20" s="67" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="67" t="s">
         <v>111</v>
       </c>
@@ -8152,18 +8202,18 @@
         <v>24</v>
       </c>
       <c r="N93" s="97" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="O93" s="97" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="P93" s="98" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="S93" s="96"/>
       <c r="T93" s="68"/>
     </row>
-    <row r="94" spans="1:20" s="67" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:20" s="67" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B94" s="67" t="str">
         <f t="shared" ref="B94:B100" si="4">CONCATENATE(H94,I94)</f>
         <v/>
@@ -8194,7 +8244,7 @@
       <c r="P94" s="69"/>
       <c r="T94" s="68"/>
     </row>
-    <row r="95" spans="1:20" s="67" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:20" s="67" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B95" s="67" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -8225,7 +8275,7 @@
       <c r="P95" s="69"/>
       <c r="T95" s="68"/>
     </row>
-    <row r="96" spans="1:20" s="67" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:20" s="67" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B96" s="67" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -8256,7 +8306,7 @@
       <c r="P96" s="69"/>
       <c r="T96" s="68"/>
     </row>
-    <row r="97" spans="2:20" s="67" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:20" s="67" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B97" s="67" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -8287,7 +8337,7 @@
       <c r="P97" s="69"/>
       <c r="T97" s="68"/>
     </row>
-    <row r="98" spans="2:20" s="67" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:20" s="67" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B98" s="67" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -8318,7 +8368,7 @@
       <c r="P98" s="69"/>
       <c r="T98" s="68"/>
     </row>
-    <row r="99" spans="2:20" s="67" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:20" s="67" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B99" s="67" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -8350,7 +8400,7 @@
       <c r="S99" s="96"/>
       <c r="T99" s="68"/>
     </row>
-    <row r="100" spans="2:20" s="67" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:20" s="67" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B100" s="67" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -8381,7 +8431,7 @@
       <c r="P100" s="69"/>
       <c r="T100" s="68"/>
     </row>
-    <row r="101" spans="2:20" s="67" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:20" s="67" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B101" s="67" t="str">
         <f t="shared" ref="B101:B116" si="6">CONCATENATE(H101,I101)</f>
         <v/>
@@ -8412,7 +8462,7 @@
       <c r="P101" s="69"/>
       <c r="T101" s="68"/>
     </row>
-    <row r="102" spans="2:20" s="67" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:20" s="67" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B102" s="67" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -8443,7 +8493,7 @@
       <c r="P102" s="69"/>
       <c r="T102" s="68"/>
     </row>
-    <row r="103" spans="2:20" s="67" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:20" s="67" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B103" s="67" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -8474,7 +8524,7 @@
       <c r="P103" s="69"/>
       <c r="T103" s="68"/>
     </row>
-    <row r="104" spans="2:20" s="67" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:20" s="67" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B104" s="67" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -8505,7 +8555,7 @@
       <c r="P104" s="69"/>
       <c r="T104" s="68"/>
     </row>
-    <row r="105" spans="2:20" s="67" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:20" s="67" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B105" s="67" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -8536,7 +8586,7 @@
       <c r="P105" s="69"/>
       <c r="T105" s="68"/>
     </row>
-    <row r="106" spans="2:20" s="67" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:20" s="67" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B106" s="67" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -8567,7 +8617,7 @@
       <c r="P106" s="69"/>
       <c r="T106" s="68"/>
     </row>
-    <row r="107" spans="2:20" s="67" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:20" s="67" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B107" s="67" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -8598,7 +8648,7 @@
       <c r="P107" s="69"/>
       <c r="T107" s="68"/>
     </row>
-    <row r="108" spans="2:20" s="67" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:20" s="67" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B108" s="67" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -8629,7 +8679,7 @@
       <c r="P108" s="69"/>
       <c r="T108" s="68"/>
     </row>
-    <row r="109" spans="2:20" s="67" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:20" s="67" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B109" s="67" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -8660,7 +8710,7 @@
       <c r="P109" s="69"/>
       <c r="T109" s="68"/>
     </row>
-    <row r="110" spans="2:20" s="67" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="2:20" s="67" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B110" s="67" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -8691,7 +8741,7 @@
       <c r="P110" s="69"/>
       <c r="T110" s="68"/>
     </row>
-    <row r="111" spans="2:20" s="67" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="2:20" s="67" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B111" s="67" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -8722,7 +8772,7 @@
       <c r="P111" s="69"/>
       <c r="T111" s="68"/>
     </row>
-    <row r="112" spans="2:20" s="67" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="2:20" s="67" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B112" s="67" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -8753,7 +8803,7 @@
       <c r="P112" s="69"/>
       <c r="T112" s="68"/>
     </row>
-    <row r="113" spans="2:20" s="67" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="2:20" s="67" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B113" s="67" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -8784,7 +8834,7 @@
       <c r="P113" s="69"/>
       <c r="T113" s="68"/>
     </row>
-    <row r="114" spans="2:20" s="67" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="2:20" s="67" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B114" s="67" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -8815,7 +8865,7 @@
       <c r="P114" s="69"/>
       <c r="T114" s="68"/>
     </row>
-    <row r="115" spans="2:20" s="67" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="2:20" s="67" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B115" s="67" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -8846,7 +8896,7 @@
       <c r="P115" s="69"/>
       <c r="T115" s="68"/>
     </row>
-    <row r="116" spans="2:20" s="67" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="2:20" s="67" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B116" s="67" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -8877,7 +8927,7 @@
       <c r="P116" s="69"/>
       <c r="T116" s="68"/>
     </row>
-    <row r="117" spans="2:20" s="67" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="2:20" s="67" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B117" s="67" t="str">
         <f t="shared" ref="B117:B136" si="8">CONCATENATE(H117,I117)</f>
         <v/>
@@ -8908,7 +8958,7 @@
       <c r="P117" s="69"/>
       <c r="T117" s="68"/>
     </row>
-    <row r="118" spans="2:20" s="67" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="2:20" s="67" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B118" s="67" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -8939,7 +8989,7 @@
       <c r="P118" s="69"/>
       <c r="T118" s="68"/>
     </row>
-    <row r="119" spans="2:20" s="67" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="2:20" s="67" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B119" s="67" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -8970,7 +9020,7 @@
       <c r="P119" s="69"/>
       <c r="T119" s="68"/>
     </row>
-    <row r="120" spans="2:20" s="67" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="2:20" s="67" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B120" s="67" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -9001,7 +9051,7 @@
       <c r="P120" s="69"/>
       <c r="T120" s="68"/>
     </row>
-    <row r="121" spans="2:20" s="67" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="2:20" s="67" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B121" s="67" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -9032,7 +9082,7 @@
       <c r="P121" s="69"/>
       <c r="T121" s="68"/>
     </row>
-    <row r="122" spans="2:20" s="67" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="2:20" s="67" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B122" s="67" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -9063,7 +9113,7 @@
       <c r="P122" s="69"/>
       <c r="T122" s="68"/>
     </row>
-    <row r="123" spans="2:20" s="67" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="2:20" s="67" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B123" s="67" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -9094,7 +9144,7 @@
       <c r="P123" s="69"/>
       <c r="T123" s="68"/>
     </row>
-    <row r="124" spans="2:20" s="67" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="2:20" s="67" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B124" s="67" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -9125,7 +9175,7 @@
       <c r="P124" s="69"/>
       <c r="T124" s="68"/>
     </row>
-    <row r="125" spans="2:20" s="67" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="2:20" s="67" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B125" s="67" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -9156,7 +9206,7 @@
       <c r="P125" s="69"/>
       <c r="T125" s="68"/>
     </row>
-    <row r="126" spans="2:20" s="67" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="2:20" s="67" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B126" s="67" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -9187,7 +9237,7 @@
       <c r="P126" s="69"/>
       <c r="T126" s="68"/>
     </row>
-    <row r="127" spans="2:20" s="67" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="2:20" s="67" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B127" s="67" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -9218,7 +9268,7 @@
       <c r="P127" s="69"/>
       <c r="T127" s="68"/>
     </row>
-    <row r="128" spans="2:20" s="67" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="2:20" s="67" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B128" s="67" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -9249,7 +9299,7 @@
       <c r="P128" s="69"/>
       <c r="T128" s="68"/>
     </row>
-    <row r="129" spans="2:20" s="67" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="2:20" s="67" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B129" s="67" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -9280,7 +9330,7 @@
       <c r="P129" s="69"/>
       <c r="T129" s="68"/>
     </row>
-    <row r="130" spans="2:20" s="67" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="2:20" s="67" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B130" s="67" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -9311,7 +9361,7 @@
       <c r="P130" s="69"/>
       <c r="T130" s="68"/>
     </row>
-    <row r="131" spans="2:20" s="67" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="2:20" s="67" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B131" s="67" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -9342,7 +9392,7 @@
       <c r="P131" s="69"/>
       <c r="T131" s="68"/>
     </row>
-    <row r="132" spans="2:20" s="67" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="2:20" s="67" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B132" s="67" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -9373,7 +9423,7 @@
       <c r="P132" s="69"/>
       <c r="T132" s="68"/>
     </row>
-    <row r="133" spans="2:20" s="67" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="2:20" s="67" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B133" s="67" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -9404,7 +9454,7 @@
       <c r="P133" s="69"/>
       <c r="T133" s="68"/>
     </row>
-    <row r="134" spans="2:20" s="67" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="2:20" s="67" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B134" s="67" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -9435,7 +9485,7 @@
       <c r="P134" s="69"/>
       <c r="T134" s="68"/>
     </row>
-    <row r="135" spans="2:20" s="67" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="2:20" s="67" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B135" s="67" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -9466,7 +9516,7 @@
       <c r="P135" s="69"/>
       <c r="T135" s="68"/>
     </row>
-    <row r="136" spans="2:20" s="67" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="2:20" s="67" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B136" s="67" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -9497,7 +9547,7 @@
       <c r="P136" s="69"/>
       <c r="T136" s="68"/>
     </row>
-    <row r="137" spans="2:20" s="67" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="2:20" s="67" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B137" s="67" t="str">
         <f t="shared" ref="B137" si="10">CONCATENATE(H137,I137)</f>
         <v/>
@@ -9529,7 +9579,7 @@
       <c r="T137" s="68"/>
     </row>
   </sheetData>
-  <sortState ref="A5:T93">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:T93">
     <sortCondition ref="C5:C93"/>
     <sortCondition ref="F5:F93"/>
     <sortCondition ref="G5:G93"/>
@@ -9547,23 +9597,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J127"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="A81" sqref="A81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="3" max="4" width="9.140625" style="20" customWidth="1"/>
-    <col min="5" max="5" width="55.7109375" customWidth="1"/>
-    <col min="6" max="6" width="45.42578125" customWidth="1"/>
-    <col min="7" max="7" width="0.140625" customWidth="1"/>
-    <col min="8" max="9" width="8.7109375" hidden="1" customWidth="1"/>
+    <col min="3" max="4" width="9.1640625" style="20" customWidth="1"/>
+    <col min="5" max="5" width="55.6640625" customWidth="1"/>
+    <col min="6" max="6" width="45.5" customWidth="1"/>
+    <col min="7" max="7" width="0.1640625" customWidth="1"/>
+    <col min="8" max="9" width="8.6640625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="63.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.85">
+    <row r="1" spans="1:10" ht="64" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A1" s="110" t="s">
         <v>64</v>
       </c>
@@ -9579,7 +9629,7 @@
       <c r="I1" s="114"/>
       <c r="J1" s="115"/>
     </row>
-    <row r="2" spans="1:10" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A2" s="104" t="s">
         <v>18</v>
       </c>
@@ -9595,7 +9645,7 @@
       <c r="I2" s="116"/>
       <c r="J2" s="117"/>
     </row>
-    <row r="3" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="107" t="s">
         <v>19</v>
       </c>
@@ -9609,7 +9659,7 @@
       <c r="I3" s="116"/>
       <c r="J3" s="117"/>
     </row>
-    <row r="4" spans="1:10" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="15"/>
       <c r="B4" s="16" t="s">
         <v>20</v>
@@ -9627,7 +9677,7 @@
       <c r="I4" s="118"/>
       <c r="J4" s="119"/>
     </row>
-    <row r="5" spans="1:10" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="14" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A5" s="35" t="s">
         <v>91</v>
       </c>
@@ -9649,7 +9699,7 @@
       <c r="I5" s="41"/>
       <c r="J5" s="41"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" s="35" t="s">
         <v>92</v>
       </c>
@@ -9671,7 +9721,7 @@
       <c r="I6" s="41"/>
       <c r="J6" s="41"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" s="35" t="s">
         <v>36</v>
       </c>
@@ -9688,7 +9738,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8" s="35" t="s">
         <v>40</v>
       </c>
@@ -9705,7 +9755,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9" s="35" t="s">
         <v>70</v>
       </c>
@@ -9722,7 +9772,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10" s="35" t="s">
         <v>65</v>
       </c>
@@ -9739,7 +9789,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11" s="35" t="s">
         <v>71</v>
       </c>
@@ -9756,7 +9806,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A12" s="35" t="s">
         <v>72</v>
       </c>
@@ -9773,7 +9823,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A13" s="35" t="s">
         <v>93</v>
       </c>
@@ -9794,7 +9844,7 @@
       <c r="H13" s="42"/>
       <c r="I13" s="42"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A14" s="35" t="s">
         <v>173</v>
       </c>
@@ -9815,7 +9865,7 @@
       <c r="H14" s="42"/>
       <c r="I14" s="42"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A15" s="43" t="s">
         <v>73</v>
       </c>
@@ -9832,7 +9882,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="16" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A16" s="43" t="s">
         <v>74</v>
       </c>
@@ -9850,7 +9900,7 @@
       </c>
       <c r="F16" s="25"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A17" s="43" t="s">
         <v>75</v>
       </c>
@@ -9867,7 +9917,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="18" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A18" s="43" t="s">
         <v>76</v>
       </c>
@@ -9884,7 +9934,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A19" s="43" t="s">
         <v>77</v>
       </c>
@@ -9901,7 +9951,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A20" s="43" t="s">
         <v>78</v>
       </c>
@@ -9918,7 +9968,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A21" s="43" t="s">
         <v>79</v>
       </c>
@@ -9935,7 +9985,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A22" s="43" t="s">
         <v>80</v>
       </c>
@@ -9952,7 +10002,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A23" s="43" t="s">
         <v>41</v>
       </c>
@@ -9969,7 +10019,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A24" s="43" t="s">
         <v>42</v>
       </c>
@@ -9986,7 +10036,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="25" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A25" s="43" t="s">
         <v>43</v>
       </c>
@@ -10007,7 +10057,7 @@
       <c r="H25" s="42"/>
       <c r="I25" s="42"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A26" s="50" t="s">
         <v>81</v>
       </c>
@@ -10024,7 +10074,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A27" s="50" t="s">
         <v>108</v>
       </c>
@@ -10041,7 +10091,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A28" s="50" t="s">
         <v>110</v>
       </c>
@@ -10058,7 +10108,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A29" s="50" t="s">
         <v>111</v>
       </c>
@@ -10075,7 +10125,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A30" s="50" t="s">
         <v>112</v>
       </c>
@@ -10095,7 +10145,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A31" s="50" t="s">
         <v>114</v>
       </c>
@@ -10112,7 +10162,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A32" s="50" t="s">
         <v>115</v>
       </c>
@@ -10129,7 +10179,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A33" s="50" t="s">
         <v>116</v>
       </c>
@@ -10146,7 +10196,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A34" s="50" t="s">
         <v>117</v>
       </c>
@@ -10163,7 +10213,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A35" s="50" t="s">
         <v>174</v>
       </c>
@@ -10180,7 +10230,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A36" s="50" t="s">
         <v>175</v>
       </c>
@@ -10197,7 +10247,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A37" s="57" t="s">
         <v>47</v>
       </c>
@@ -10214,7 +10264,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A38" s="57" t="s">
         <v>59</v>
       </c>
@@ -10231,7 +10281,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A39" s="57" t="s">
         <v>66</v>
       </c>
@@ -10248,7 +10298,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A40" s="57" t="s">
         <v>67</v>
       </c>
@@ -10265,7 +10315,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A41" s="57" t="s">
         <v>84</v>
       </c>
@@ -10282,7 +10332,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A42" s="57" t="s">
         <v>118</v>
       </c>
@@ -10299,7 +10349,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A43" s="57" t="s">
         <v>119</v>
       </c>
@@ -10316,7 +10366,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A44" s="57" t="s">
         <v>120</v>
       </c>
@@ -10333,7 +10383,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A45" s="57" t="s">
         <v>134</v>
       </c>
@@ -10350,7 +10400,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A46" s="57" t="s">
         <v>136</v>
       </c>
@@ -10367,7 +10417,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A47" s="57" t="s">
         <v>137</v>
       </c>
@@ -10384,7 +10434,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A48" s="57" t="s">
         <v>138</v>
       </c>
@@ -10401,7 +10451,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A49" s="57" t="s">
         <v>139</v>
       </c>
@@ -10418,7 +10468,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A50" s="57" t="s">
         <v>140</v>
       </c>
@@ -10435,7 +10485,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A51" s="57" t="s">
         <v>141</v>
       </c>
@@ -10452,7 +10502,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A52" s="57" t="s">
         <v>142</v>
       </c>
@@ -10469,7 +10519,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A53" s="57" t="s">
         <v>52</v>
       </c>
@@ -10486,7 +10536,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A54" s="57" t="s">
         <v>53</v>
       </c>
@@ -10503,7 +10553,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A55" s="57" t="s">
         <v>54</v>
       </c>
@@ -10520,7 +10570,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A56" s="57" t="s">
         <v>55</v>
       </c>
@@ -10537,7 +10587,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A57" s="57" t="s">
         <v>88</v>
       </c>
@@ -10554,7 +10604,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A58" s="57" t="s">
         <v>121</v>
       </c>
@@ -10571,7 +10621,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A59" s="57" t="s">
         <v>122</v>
       </c>
@@ -10588,7 +10638,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A60" s="57" t="s">
         <v>143</v>
       </c>
@@ -10605,7 +10655,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A61" s="57" t="s">
         <v>144</v>
       </c>
@@ -10622,7 +10672,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A62" s="57" t="s">
         <v>145</v>
       </c>
@@ -10639,7 +10689,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A63" s="57" t="s">
         <v>146</v>
       </c>
@@ -10656,7 +10706,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A64" s="57" t="s">
         <v>147</v>
       </c>
@@ -10673,7 +10723,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A65" s="57" t="s">
         <v>148</v>
       </c>
@@ -10690,7 +10740,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A66" s="57" t="s">
         <v>149</v>
       </c>
@@ -10707,7 +10757,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A67" s="57" t="s">
         <v>56</v>
       </c>
@@ -10724,7 +10774,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A68" s="57" t="s">
         <v>57</v>
       </c>
@@ -10741,7 +10791,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A69" s="57" t="s">
         <v>58</v>
       </c>
@@ -10758,7 +10808,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A70" s="57" t="s">
         <v>60</v>
       </c>
@@ -10775,7 +10825,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A71" s="57" t="s">
         <v>68</v>
       </c>
@@ -10792,7 +10842,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A72" s="57" t="s">
         <v>123</v>
       </c>
@@ -10809,7 +10859,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A73" s="57" t="s">
         <v>124</v>
       </c>
@@ -10826,7 +10876,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A74" s="57" t="s">
         <v>125</v>
       </c>
@@ -10843,7 +10893,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A75" s="57" t="s">
         <v>150</v>
       </c>
@@ -10860,7 +10910,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A76" s="57" t="s">
         <v>151</v>
       </c>
@@ -10877,7 +10927,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A77" s="57" t="s">
         <v>152</v>
       </c>
@@ -10894,7 +10944,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A78" s="57" t="s">
         <v>153</v>
       </c>
@@ -10911,7 +10961,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A79" s="57" t="s">
         <v>154</v>
       </c>
@@ -10928,7 +10978,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A80" s="57" t="s">
         <v>155</v>
       </c>
@@ -10945,7 +10995,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A81" s="57" t="s">
         <v>156</v>
       </c>
@@ -10962,7 +11012,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A82" s="57" t="s">
         <v>157</v>
       </c>
@@ -10979,7 +11029,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A83" s="57" t="s">
         <v>48</v>
       </c>
@@ -10996,7 +11046,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A84" s="57" t="s">
         <v>49</v>
       </c>
@@ -11013,7 +11063,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A85" s="57" t="s">
         <v>50</v>
       </c>
@@ -11030,7 +11080,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A86" s="57" t="s">
         <v>51</v>
       </c>
@@ -11047,7 +11097,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A87" s="57" t="s">
         <v>89</v>
       </c>
@@ -11064,7 +11114,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A88" s="57" t="s">
         <v>126</v>
       </c>
@@ -11081,7 +11131,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A89" s="57" t="s">
         <v>127</v>
       </c>
@@ -11098,7 +11148,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A90" s="57" t="s">
         <v>158</v>
       </c>
@@ -11115,7 +11165,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A91" s="57" t="s">
         <v>159</v>
       </c>
@@ -11132,7 +11182,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A92" s="57" t="s">
         <v>160</v>
       </c>
@@ -11149,7 +11199,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A93" s="57" t="s">
         <v>161</v>
       </c>
@@ -11166,7 +11216,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A94" s="57" t="s">
         <v>162</v>
       </c>
@@ -11183,7 +11233,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A95" s="57" t="s">
         <v>163</v>
       </c>
@@ -11200,7 +11250,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A96" s="57" t="s">
         <v>164</v>
       </c>
@@ -11217,7 +11267,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A97" s="57" t="s">
         <v>44</v>
       </c>
@@ -11234,7 +11284,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A98" s="57" t="s">
         <v>45</v>
       </c>
@@ -11251,7 +11301,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A99" s="57" t="s">
         <v>46</v>
       </c>
@@ -11268,7 +11318,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A100" s="57" t="s">
         <v>83</v>
       </c>
@@ -11285,7 +11335,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A101" s="57" t="s">
         <v>128</v>
       </c>
@@ -11302,7 +11352,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A102" s="57" t="s">
         <v>129</v>
       </c>
@@ -11319,7 +11369,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A103" s="57" t="s">
         <v>130</v>
       </c>
@@ -11336,7 +11386,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A104" s="57" t="s">
         <v>131</v>
       </c>
@@ -11353,7 +11403,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A105" s="57" t="s">
         <v>165</v>
       </c>
@@ -11370,7 +11420,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A106" s="57" t="s">
         <v>166</v>
       </c>
@@ -11387,7 +11437,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A107" s="57" t="s">
         <v>167</v>
       </c>
@@ -11404,7 +11454,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A108" s="57" t="s">
         <v>168</v>
       </c>
@@ -11421,7 +11471,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A109" s="57" t="s">
         <v>169</v>
       </c>
@@ -11438,7 +11488,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A110" s="57" t="s">
         <v>170</v>
       </c>
@@ -11455,7 +11505,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A111" s="57" t="s">
         <v>171</v>
       </c>
@@ -11472,7 +11522,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A112" s="57" t="s">
         <v>172</v>
       </c>
@@ -11489,7 +11539,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A113" s="57" t="s">
         <v>132</v>
       </c>
@@ -11506,7 +11556,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A115" s="48" t="s">
         <v>85</v>
       </c>
@@ -11516,7 +11566,7 @@
       <c r="E115" s="42"/>
       <c r="F115" s="42"/>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A116" s="42"/>
       <c r="B116" s="42"/>
       <c r="C116" s="42"/>
@@ -11524,7 +11574,7 @@
       <c r="E116" s="42"/>
       <c r="F116" s="42"/>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A117" s="42" t="s">
         <v>86</v>
       </c>
@@ -11534,7 +11584,7 @@
       <c r="E117" s="42"/>
       <c r="F117" s="42"/>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A118" s="42" t="s">
         <v>87</v>
       </c>
@@ -11544,7 +11594,7 @@
       <c r="E118" s="42"/>
       <c r="F118" s="42"/>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A119" s="42"/>
       <c r="B119" s="42"/>
       <c r="C119" s="42"/>
@@ -11552,7 +11602,7 @@
       <c r="E119" s="42"/>
       <c r="F119" s="42"/>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A120" s="48" t="s">
         <v>95</v>
       </c>
@@ -11562,7 +11612,7 @@
       <c r="E120" s="42"/>
       <c r="F120" s="42"/>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A121" s="48" t="s">
         <v>96</v>
       </c>
@@ -11572,7 +11622,7 @@
       <c r="E121" s="42"/>
       <c r="F121" s="42"/>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A122" s="48" t="s">
         <v>97</v>
       </c>
@@ -11582,7 +11632,7 @@
       <c r="E122" s="42"/>
       <c r="F122" s="42"/>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A123" s="48" t="s">
         <v>98</v>
       </c>
@@ -11592,7 +11642,7 @@
       <c r="E123" s="42"/>
       <c r="F123" s="42"/>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A124" s="42"/>
       <c r="B124" s="42"/>
       <c r="C124" s="42"/>
@@ -11600,7 +11650,7 @@
       <c r="E124" s="42"/>
       <c r="F124" s="42"/>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A125" s="64" t="s">
         <v>508</v>
       </c>
@@ -11610,7 +11660,7 @@
       <c r="E125" s="64"/>
       <c r="F125" s="42"/>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A126" s="48" t="s">
         <v>509</v>
       </c>
@@ -11620,11 +11670,11 @@
       <c r="E126" s="42"/>
       <c r="F126" s="42"/>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A127" s="24"/>
     </row>
   </sheetData>
-  <sortState ref="A5:J139">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:J139">
     <sortCondition ref="A5"/>
   </sortState>
   <mergeCells count="4">
@@ -11641,26 +11691,26 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="A21" sqref="A21:XFD21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="88"/>
-    <col min="2" max="2" width="14.7109375" style="88" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" style="88" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="10.7109375" style="88" customWidth="1"/>
-    <col min="7" max="7" width="11.5703125" style="88" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="88"/>
-    <col min="9" max="9" width="23.42578125" style="88" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="88"/>
+    <col min="1" max="1" width="9.1640625" style="88"/>
+    <col min="2" max="2" width="14.6640625" style="88" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.1640625" style="88" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="10.6640625" style="88" customWidth="1"/>
+    <col min="7" max="7" width="11.5" style="88" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.1640625" style="88"/>
+    <col min="9" max="9" width="23.5" style="88" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.1640625" style="88"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="91" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="91" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="91" t="s">
         <v>23</v>
       </c>
@@ -11692,7 +11742,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2" s="86" t="s">
         <v>511</v>
       </c>
@@ -11714,7 +11764,7 @@
       <c r="K2" s="87"/>
       <c r="L2" s="87"/>
     </row>
-    <row r="3" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="86" t="s">
         <v>575</v>
       </c>
@@ -11736,7 +11786,7 @@
       <c r="K3" s="90"/>
       <c r="L3" s="90"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4" s="88" t="s">
         <v>514</v>
       </c>
@@ -11758,7 +11808,7 @@
       <c r="K4" s="87"/>
       <c r="L4" s="87"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5" s="88" t="s">
         <v>517</v>
       </c>
@@ -11780,7 +11830,7 @@
       <c r="K5" s="87"/>
       <c r="L5" s="87"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6" s="88" t="s">
         <v>520</v>
       </c>
@@ -11802,7 +11852,7 @@
       <c r="K6" s="87"/>
       <c r="L6" s="87"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7" s="88" t="s">
         <v>523</v>
       </c>
@@ -11824,7 +11874,7 @@
       <c r="K7" s="87"/>
       <c r="L7" s="87"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8" s="88" t="s">
         <v>526</v>
       </c>
@@ -11846,7 +11896,7 @@
       <c r="K8" s="87"/>
       <c r="L8" s="87"/>
     </row>
-    <row r="9" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="84" t="s">
         <v>590</v>
       </c>
@@ -11871,7 +11921,7 @@
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10" s="88" t="s">
         <v>529</v>
       </c>
@@ -11893,7 +11943,7 @@
       <c r="K10" s="87"/>
       <c r="L10" s="87"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11" s="88" t="s">
         <v>532</v>
       </c>
@@ -11915,7 +11965,7 @@
       <c r="K11" s="87"/>
       <c r="L11" s="87"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12" s="88" t="s">
         <v>535</v>
       </c>
@@ -11937,7 +11987,7 @@
       <c r="K12" s="87"/>
       <c r="L12" s="87"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13" s="88" t="s">
         <v>538</v>
       </c>
@@ -11959,7 +12009,7 @@
       <c r="K13" s="87"/>
       <c r="L13" s="87"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14" s="88" t="s">
         <v>541</v>
       </c>
@@ -11981,7 +12031,7 @@
       <c r="K14" s="87"/>
       <c r="L14" s="87"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15" s="88" t="s">
         <v>544</v>
       </c>
@@ -12003,7 +12053,7 @@
       <c r="K15" s="87"/>
       <c r="L15" s="87"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16" s="88" t="s">
         <v>547</v>
       </c>
@@ -12025,7 +12075,7 @@
       <c r="K16" s="87"/>
       <c r="L16" s="87"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A17" s="88" t="s">
         <v>550</v>
       </c>
@@ -12047,7 +12097,7 @@
       <c r="K17" s="87"/>
       <c r="L17" s="87"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A18" s="88" t="s">
         <v>553</v>
       </c>
@@ -12069,7 +12119,7 @@
       <c r="K18" s="87"/>
       <c r="L18" s="87"/>
     </row>
-    <row r="19" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="88" t="s">
         <v>556</v>
       </c>
@@ -12091,7 +12141,7 @@
       <c r="K19" s="87"/>
       <c r="L19" s="87"/>
     </row>
-    <row r="20" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="86" t="s">
         <v>578</v>
       </c>
@@ -12113,7 +12163,7 @@
       <c r="K20" s="90"/>
       <c r="L20" s="90"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A21" s="88" t="s">
         <v>559</v>
       </c>
@@ -12135,7 +12185,7 @@
       <c r="K21" s="87"/>
       <c r="L21" s="87"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A22" s="88" t="s">
         <v>562</v>
       </c>
@@ -12157,7 +12207,7 @@
       <c r="K22" s="87"/>
       <c r="L22" s="87"/>
     </row>
-    <row r="23" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="88" t="s">
         <v>565</v>
       </c>
@@ -12179,7 +12229,7 @@
       <c r="K23" s="87"/>
       <c r="L23" s="87"/>
     </row>
-    <row r="24" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="88" t="s">
         <v>568</v>
       </c>
@@ -12201,7 +12251,7 @@
       <c r="K24" s="87"/>
       <c r="L24" s="87"/>
     </row>
-    <row r="25" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="86" t="s">
         <v>581</v>
       </c>
@@ -12223,7 +12273,7 @@
       <c r="K25" s="90"/>
       <c r="L25" s="90"/>
     </row>
-    <row r="26" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="88" t="s">
         <v>570</v>
       </c>
@@ -12245,7 +12295,7 @@
       <c r="K26" s="87"/>
       <c r="L26" s="87"/>
     </row>
-    <row r="27" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D27" s="92"/>
       <c r="E27" s="90"/>
       <c r="I27" s="89" t="str">
@@ -12256,7 +12306,7 @@
       <c r="K27" s="90"/>
       <c r="L27" s="90"/>
     </row>
-    <row r="28" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D28" s="92"/>
       <c r="E28" s="90"/>
       <c r="I28" s="89" t="str">
@@ -12267,7 +12317,7 @@
       <c r="K28" s="90"/>
       <c r="L28" s="90"/>
     </row>
-    <row r="29" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D29" s="90"/>
       <c r="E29" s="90"/>
       <c r="I29" s="89" t="str">
@@ -12278,7 +12328,7 @@
       <c r="K29" s="90"/>
       <c r="L29" s="90"/>
     </row>
-    <row r="30" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D30" s="90"/>
       <c r="E30" s="90"/>
       <c r="I30" s="88" t="str">
@@ -12289,7 +12339,7 @@
       <c r="K30" s="90"/>
       <c r="L30" s="90"/>
     </row>
-    <row r="31" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D31" s="90"/>
       <c r="E31" s="90"/>
       <c r="I31" s="88" t="str">
@@ -12301,7 +12351,7 @@
       <c r="L31" s="90"/>
     </row>
   </sheetData>
-  <sortState ref="A2:L28">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L28">
     <sortCondition ref="A28"/>
   </sortState>
   <phoneticPr fontId="0" type="noConversion"/>
@@ -12313,23 +12363,23 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:IV187"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" style="34" customWidth="1"/>
-    <col min="2" max="2" width="46.140625" style="34" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" style="33" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" style="33" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="33"/>
+    <col min="1" max="1" width="9.83203125" style="34" customWidth="1"/>
+    <col min="2" max="2" width="46.1640625" style="34" customWidth="1"/>
+    <col min="3" max="3" width="10.1640625" style="33" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" style="33" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.1640625" style="33"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:256" s="66" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:256" s="66" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A1" s="65" t="s">
         <v>3</v>
       </c>
@@ -12343,7 +12393,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:256" s="32" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:256" s="32" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="30" t="s">
         <v>177</v>
       </c>
@@ -12609,7 +12659,7 @@
       <c r="IU2" s="30"/>
       <c r="IV2" s="30"/>
     </row>
-    <row r="3" spans="1:256" s="30" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:256" s="30" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="30" t="s">
         <v>178</v>
       </c>
@@ -12623,7 +12673,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:256" s="30" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:256" s="30" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="30" t="s">
         <v>176</v>
       </c>
@@ -12637,7 +12687,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:256" s="30" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:256" s="30" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="30" t="s">
         <v>179</v>
       </c>
@@ -12651,7 +12701,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:256" s="30" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:256" s="30" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="30" t="s">
         <v>180</v>
       </c>
@@ -12665,7 +12715,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:256" s="30" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:256" s="30" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="30" t="s">
         <v>181</v>
       </c>
@@ -12679,7 +12729,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:256" s="30" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:256" s="30" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="30" t="s">
         <v>182</v>
       </c>
@@ -12693,7 +12743,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:256" s="30" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:256" s="30" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="30" t="s">
         <v>183</v>
       </c>
@@ -12707,7 +12757,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:256" s="30" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:256" s="30" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="30" t="s">
         <v>184</v>
       </c>
@@ -12722,7 +12772,7 @@
       </c>
       <c r="E10" s="32"/>
     </row>
-    <row r="11" spans="1:256" s="30" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:256" s="30" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="30" t="s">
         <v>185</v>
       </c>
@@ -12736,7 +12786,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:256" s="30" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:256" s="30" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="30" t="s">
         <v>186</v>
       </c>
@@ -12750,7 +12800,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:256" s="30" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:256" s="30" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="30" t="s">
         <v>187</v>
       </c>
@@ -13014,7 +13064,7 @@
       <c r="IU13" s="32"/>
       <c r="IV13" s="32"/>
     </row>
-    <row r="14" spans="1:256" s="30" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:256" s="30" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="30" t="s">
         <v>188</v>
       </c>
@@ -13028,7 +13078,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:256" s="30" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:256" s="30" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="30" t="s">
         <v>189</v>
       </c>
@@ -13042,7 +13092,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:256" s="30" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:256" s="30" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="30" t="s">
         <v>190</v>
       </c>
@@ -13056,7 +13106,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:256" s="30" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:256" s="30" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="34" t="s">
         <v>603</v>
       </c>
@@ -13322,7 +13372,7 @@
       <c r="IU17" s="33"/>
       <c r="IV17" s="33"/>
     </row>
-    <row r="18" spans="1:256" s="30" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:256" s="30" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="30" t="s">
         <v>191</v>
       </c>
@@ -13336,7 +13386,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:256" s="30" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:256" s="30" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="30" t="s">
         <v>192</v>
       </c>
@@ -13350,7 +13400,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:256" s="30" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:256" s="30" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="30" t="s">
         <v>193</v>
       </c>
@@ -13364,7 +13414,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:256" s="30" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:256" s="30" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="29" t="s">
         <v>194</v>
       </c>
@@ -13629,7 +13679,7 @@
       <c r="IU21" s="32"/>
       <c r="IV21" s="32"/>
     </row>
-    <row r="22" spans="1:256" s="30" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:256" s="30" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="29" t="s">
         <v>195</v>
       </c>
@@ -13644,7 +13694,7 @@
       </c>
       <c r="E22" s="32"/>
     </row>
-    <row r="23" spans="1:256" s="30" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:256" s="30" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="30" t="s">
         <v>196</v>
       </c>
@@ -13658,7 +13708,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:256" s="30" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:256" s="30" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="30" t="s">
         <v>197</v>
       </c>
@@ -13672,7 +13722,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:256" s="30" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:256" s="30" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="30" t="s">
         <v>198</v>
       </c>
@@ -13686,7 +13736,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:256" s="30" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:256" s="30" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="30" t="s">
         <v>199</v>
       </c>
@@ -13700,7 +13750,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:256" s="30" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:256" s="30" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="30" t="s">
         <v>200</v>
       </c>
@@ -13714,7 +13764,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:256" s="30" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:256" s="30" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="29" t="s">
         <v>201</v>
       </c>
@@ -13728,7 +13778,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:256" s="30" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:256" s="30" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="29" t="s">
         <v>202</v>
       </c>
@@ -13742,7 +13792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:256" s="30" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:256" s="30" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="30" t="s">
         <v>203</v>
       </c>
@@ -13756,7 +13806,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:256" s="30" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:256" s="30" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="29" t="s">
         <v>204</v>
       </c>
@@ -13770,12 +13820,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:256" s="30" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:256" s="30" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="34" t="s">
         <v>606</v>
       </c>
       <c r="B32" s="34" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="C32" s="33">
         <v>3</v>
@@ -14036,7 +14086,7 @@
       <c r="IU32" s="33"/>
       <c r="IV32" s="33"/>
     </row>
-    <row r="33" spans="1:256" s="30" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:256" s="30" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="30" t="s">
         <v>205</v>
       </c>
@@ -14050,7 +14100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:256" s="30" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:256" s="30" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="30" t="s">
         <v>206</v>
       </c>
@@ -14064,7 +14114,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:256" s="30" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:256" s="30" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="30" t="s">
         <v>207</v>
       </c>
@@ -14078,7 +14128,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:256" s="30" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:256" s="30" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="30" t="s">
         <v>208</v>
       </c>
@@ -14092,7 +14142,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:256" s="30" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:256" s="30" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="30" t="s">
         <v>209</v>
       </c>
@@ -14106,7 +14156,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:256" s="30" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:256" s="30" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="30" t="s">
         <v>210</v>
       </c>
@@ -14120,7 +14170,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:256" s="30" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:256" s="30" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="30" t="s">
         <v>211</v>
       </c>
@@ -14134,7 +14184,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:256" s="30" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:256" s="30" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="30" t="s">
         <v>212</v>
       </c>
@@ -14148,7 +14198,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:256" s="30" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:256" s="30" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="30" t="s">
         <v>213</v>
       </c>
@@ -14162,7 +14212,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:256" s="30" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:256" s="30" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="30" t="s">
         <v>214</v>
       </c>
@@ -14176,7 +14226,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:256" s="30" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:256" s="30" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="30" t="s">
         <v>215</v>
       </c>
@@ -14190,7 +14240,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:256" s="30" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:256" s="30" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="30" t="s">
         <v>216</v>
       </c>
@@ -14204,7 +14254,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:256" s="30" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:256" s="30" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="30" t="s">
         <v>217</v>
       </c>
@@ -14218,7 +14268,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:256" s="30" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:256" s="30" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="30" t="s">
         <v>218</v>
       </c>
@@ -14232,7 +14282,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:256" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:256" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="30" t="s">
         <v>219</v>
       </c>
@@ -14498,7 +14548,7 @@
       <c r="IU47" s="30"/>
       <c r="IV47" s="30"/>
     </row>
-    <row r="48" spans="1:256" s="30" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:256" s="30" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="30" t="s">
         <v>219</v>
       </c>
@@ -14512,7 +14562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:256" s="30" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:256" s="30" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="30" t="s">
         <v>220</v>
       </c>
@@ -14777,7 +14827,7 @@
       <c r="IU49" s="33"/>
       <c r="IV49" s="33"/>
     </row>
-    <row r="50" spans="1:256" s="30" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:256" s="30" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="30" t="s">
         <v>221</v>
       </c>
@@ -14791,7 +14841,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:256" s="30" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:256" s="30" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="30" t="s">
         <v>222</v>
       </c>
@@ -15056,7 +15106,7 @@
       <c r="IU51" s="32"/>
       <c r="IV51" s="32"/>
     </row>
-    <row r="52" spans="1:256" s="30" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:256" s="30" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="30" t="s">
         <v>223</v>
       </c>
@@ -15070,7 +15120,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:256" s="30" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:256" s="30" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="30" t="s">
         <v>224</v>
       </c>
@@ -15084,7 +15134,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:256" s="30" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:256" s="30" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="30" t="s">
         <v>225</v>
       </c>
@@ -15098,7 +15148,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:256" s="30" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:256" s="30" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="30" t="s">
         <v>226</v>
       </c>
@@ -15112,7 +15162,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:256" s="30" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:256" s="30" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="30" t="s">
         <v>227</v>
       </c>
@@ -15126,7 +15176,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:256" s="30" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:256" s="30" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="30" t="s">
         <v>228</v>
       </c>
@@ -15140,7 +15190,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:256" s="30" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:256" s="30" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="30" t="s">
         <v>229</v>
       </c>
@@ -15154,7 +15204,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="59" spans="1:256" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:256" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="30" t="s">
         <v>230</v>
       </c>
@@ -15420,7 +15470,7 @@
       <c r="IU59" s="32"/>
       <c r="IV59" s="32"/>
     </row>
-    <row r="60" spans="1:256" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:256" x14ac:dyDescent="0.15">
       <c r="A60" s="29" t="s">
         <v>231</v>
       </c>
@@ -15686,7 +15736,7 @@
       <c r="IU60" s="30"/>
       <c r="IV60" s="30"/>
     </row>
-    <row r="61" spans="1:256" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:256" x14ac:dyDescent="0.15">
       <c r="A61" s="34" t="s">
         <v>232</v>
       </c>
@@ -15700,7 +15750,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:256" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:256" x14ac:dyDescent="0.15">
       <c r="A62" s="34" t="s">
         <v>233</v>
       </c>
@@ -15714,7 +15764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:256" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:256" x14ac:dyDescent="0.15">
       <c r="A63" s="34" t="s">
         <v>234</v>
       </c>
@@ -15728,7 +15778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:256" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:256" x14ac:dyDescent="0.15">
       <c r="A64" s="34" t="s">
         <v>573</v>
       </c>
@@ -15742,7 +15792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A65" s="34" t="s">
         <v>235</v>
       </c>
@@ -15756,7 +15806,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A66" s="34" t="s">
         <v>236</v>
       </c>
@@ -15770,7 +15820,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A67" s="34" t="s">
         <v>237</v>
       </c>
@@ -15784,7 +15834,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A68" s="34" t="s">
         <v>238</v>
       </c>
@@ -15798,7 +15848,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A69" s="34" t="s">
         <v>239</v>
       </c>
@@ -15812,7 +15862,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A70" s="34" t="s">
         <v>240</v>
       </c>
@@ -15826,7 +15876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A71" s="34" t="s">
         <v>241</v>
       </c>
@@ -15840,7 +15890,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A72" s="34" t="s">
         <v>242</v>
       </c>
@@ -15854,7 +15904,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A73" s="34" t="s">
         <v>243</v>
       </c>
@@ -15868,7 +15918,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A74" s="34" t="s">
         <v>244</v>
       </c>
@@ -15882,7 +15932,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A75" s="34" t="s">
         <v>245</v>
       </c>
@@ -15896,7 +15946,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A76" s="34" t="s">
         <v>246</v>
       </c>
@@ -15910,7 +15960,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A77" s="34" t="s">
         <v>247</v>
       </c>
@@ -15924,7 +15974,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A78" s="34" t="s">
         <v>248</v>
       </c>
@@ -15938,7 +15988,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A79" s="34" t="s">
         <v>249</v>
       </c>
@@ -15952,7 +16002,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A80" s="34" t="s">
         <v>250</v>
       </c>
@@ -15966,7 +16016,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A81" s="34" t="s">
         <v>251</v>
       </c>
@@ -15980,7 +16030,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A82" s="34" t="s">
         <v>252</v>
       </c>
@@ -15994,7 +16044,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A83" s="34" t="s">
         <v>253</v>
       </c>
@@ -16008,7 +16058,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A84" s="34" t="s">
         <v>254</v>
       </c>
@@ -16022,7 +16072,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A85" s="34" t="s">
         <v>255</v>
       </c>
@@ -16036,7 +16086,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A86" s="34" t="s">
         <v>256</v>
       </c>
@@ -16050,7 +16100,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A87" s="34" t="s">
         <v>257</v>
       </c>
@@ -16064,7 +16114,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A88" s="34" t="s">
         <v>258</v>
       </c>
@@ -16078,7 +16128,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A89" s="34" t="s">
         <v>259</v>
       </c>
@@ -16092,7 +16142,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A90" s="34" t="s">
         <v>260</v>
       </c>
@@ -16106,7 +16156,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A91" s="34" t="s">
         <v>261</v>
       </c>
@@ -16120,7 +16170,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A92" s="34" t="s">
         <v>262</v>
       </c>
@@ -16134,7 +16184,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A93" s="34" t="s">
         <v>263</v>
       </c>
@@ -16148,7 +16198,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A94" s="34" t="s">
         <v>264</v>
       </c>
@@ -16162,7 +16212,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A95" s="34" t="s">
         <v>265</v>
       </c>
@@ -16176,7 +16226,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A96" s="34" t="s">
         <v>266</v>
       </c>
@@ -16190,7 +16240,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A97" s="34" t="s">
         <v>267</v>
       </c>
@@ -16204,7 +16254,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A98" s="34" t="s">
         <v>268</v>
       </c>
@@ -16218,7 +16268,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A99" s="34" t="s">
         <v>269</v>
       </c>
@@ -16232,7 +16282,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A100" s="34" t="s">
         <v>270</v>
       </c>
@@ -16246,7 +16296,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A101" s="34" t="s">
         <v>271</v>
       </c>
@@ -16260,7 +16310,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A102" s="34" t="s">
         <v>272</v>
       </c>
@@ -16274,7 +16324,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A103" s="34" t="s">
         <v>273</v>
       </c>
@@ -16288,7 +16338,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A104" s="34" t="s">
         <v>274</v>
       </c>
@@ -16302,7 +16352,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A105" s="34" t="s">
         <v>275</v>
       </c>
@@ -16316,7 +16366,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A106" s="34" t="s">
         <v>276</v>
       </c>
@@ -16330,7 +16380,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A107" s="34" t="s">
         <v>277</v>
       </c>
@@ -16344,7 +16394,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A108" s="34" t="s">
         <v>277</v>
       </c>
@@ -16358,7 +16408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A109" s="34" t="s">
         <v>278</v>
       </c>
@@ -16372,7 +16422,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A110" s="34" t="s">
         <v>278</v>
       </c>
@@ -16386,7 +16436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A111" s="34" t="s">
         <v>279</v>
       </c>
@@ -16400,7 +16450,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A112" s="34" t="s">
         <v>280</v>
       </c>
@@ -16414,7 +16464,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A113" s="34" t="s">
         <v>281</v>
       </c>
@@ -16428,7 +16478,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A114" s="34" t="s">
         <v>281</v>
       </c>
@@ -16442,7 +16492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A115" s="34" t="s">
         <v>282</v>
       </c>
@@ -16456,7 +16506,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A116" s="34" t="s">
         <v>282</v>
       </c>
@@ -16470,7 +16520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A117" s="34" t="s">
         <v>283</v>
       </c>
@@ -16484,7 +16534,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A118" s="34" t="s">
         <v>284</v>
       </c>
@@ -16498,7 +16548,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A119" s="34" t="s">
         <v>285</v>
       </c>
@@ -16512,7 +16562,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A120" s="34" t="s">
         <v>286</v>
       </c>
@@ -16526,7 +16576,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A121" s="34" t="s">
         <v>287</v>
       </c>
@@ -16540,7 +16590,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A122" s="34" t="s">
         <v>288</v>
       </c>
@@ -16554,7 +16604,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A123" s="34" t="s">
         <v>289</v>
       </c>
@@ -16568,7 +16618,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A124" s="34" t="s">
         <v>290</v>
       </c>
@@ -16582,7 +16632,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A125" s="34" t="s">
         <v>291</v>
       </c>
@@ -16596,7 +16646,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A126" s="34" t="s">
         <v>292</v>
       </c>
@@ -16610,7 +16660,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A127" s="34" t="s">
         <v>293</v>
       </c>
@@ -16624,7 +16674,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A128" s="34" t="s">
         <v>294</v>
       </c>
@@ -16638,7 +16688,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A129" s="34" t="s">
         <v>295</v>
       </c>
@@ -16652,7 +16702,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A130" s="34" t="s">
         <v>295</v>
       </c>
@@ -16666,7 +16716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A131" s="34" t="s">
         <v>296</v>
       </c>
@@ -16680,7 +16730,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A132" s="34" t="s">
         <v>297</v>
       </c>
@@ -16694,7 +16744,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A133" s="34" t="s">
         <v>298</v>
       </c>
@@ -16708,7 +16758,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A134" s="34" t="s">
         <v>299</v>
       </c>
@@ -16722,7 +16772,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A135" s="34" t="s">
         <v>300</v>
       </c>
@@ -16736,7 +16786,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A136" s="34" t="s">
         <v>301</v>
       </c>
@@ -16750,7 +16800,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A137" s="34" t="s">
         <v>301</v>
       </c>
@@ -16764,7 +16814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A138" s="34" t="s">
         <v>302</v>
       </c>
@@ -16778,7 +16828,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A139" s="34" t="s">
         <v>303</v>
       </c>
@@ -16792,7 +16842,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A140" s="34" t="s">
         <v>340</v>
       </c>
@@ -16806,7 +16856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A141" s="34" t="s">
         <v>304</v>
       </c>
@@ -16820,7 +16870,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A142" s="34" t="s">
         <v>304</v>
       </c>
@@ -16834,7 +16884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A143" s="34" t="s">
         <v>305</v>
       </c>
@@ -16848,7 +16898,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A144" s="34" t="s">
         <v>306</v>
       </c>
@@ -16862,7 +16912,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A145" s="34" t="s">
         <v>307</v>
       </c>
@@ -16876,7 +16926,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A146" s="34" t="s">
         <v>308</v>
       </c>
@@ -16890,7 +16940,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A147" s="34" t="s">
         <v>308</v>
       </c>
@@ -16904,7 +16954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A148" s="34" t="s">
         <v>309</v>
       </c>
@@ -16918,7 +16968,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A149" s="34" t="s">
         <v>310</v>
       </c>
@@ -16932,7 +16982,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A150" s="34" t="s">
         <v>311</v>
       </c>
@@ -16946,7 +16996,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A151" s="34" t="s">
         <v>312</v>
       </c>
@@ -16960,7 +17010,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A152" s="34" t="s">
         <v>584</v>
       </c>
@@ -16974,7 +17024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A153" s="34" t="s">
         <v>313</v>
       </c>
@@ -16988,7 +17038,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A154" s="34" t="s">
         <v>314</v>
       </c>
@@ -17002,7 +17052,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A155" s="34" t="s">
         <v>315</v>
       </c>
@@ -17016,7 +17066,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A156" s="34" t="s">
         <v>316</v>
       </c>
@@ -17030,7 +17080,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A157" s="34" t="s">
         <v>316</v>
       </c>
@@ -17044,7 +17094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A158" s="34" t="s">
         <v>317</v>
       </c>
@@ -17058,7 +17108,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A159" s="34" t="s">
         <v>318</v>
       </c>
@@ -17072,7 +17122,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A160" s="34" t="s">
         <v>319</v>
       </c>
@@ -17086,7 +17136,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A161" s="34" t="s">
         <v>320</v>
       </c>
@@ -17100,7 +17150,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A162" s="34" t="s">
         <v>321</v>
       </c>
@@ -17114,7 +17164,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A163" s="34" t="s">
         <v>322</v>
       </c>
@@ -17128,7 +17178,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A164" s="34" t="s">
         <v>323</v>
       </c>
@@ -17142,7 +17192,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A165" s="34" t="s">
         <v>323</v>
       </c>
@@ -17156,7 +17206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A166" s="34" t="s">
         <v>324</v>
       </c>
@@ -17170,7 +17220,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A167" s="34" t="s">
         <v>325</v>
       </c>
@@ -17184,7 +17234,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A168" s="34" t="s">
         <v>326</v>
       </c>
@@ -17198,7 +17248,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A169" s="34" t="s">
         <v>326</v>
       </c>
@@ -17212,7 +17262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A170" s="34" t="s">
         <v>327</v>
       </c>
@@ -17226,7 +17276,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A171" s="34" t="s">
         <v>327</v>
       </c>
@@ -17240,7 +17290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A172" s="34" t="s">
         <v>328</v>
       </c>
@@ -17254,7 +17304,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A173" s="34" t="s">
         <v>329</v>
       </c>
@@ -17268,7 +17318,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A174" s="34" t="s">
         <v>330</v>
       </c>
@@ -17282,7 +17332,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A175" s="34" t="s">
         <v>331</v>
       </c>
@@ -17296,7 +17346,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A176" s="34" t="s">
         <v>332</v>
       </c>
@@ -17310,7 +17360,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A177" s="34" t="s">
         <v>332</v>
       </c>
@@ -17324,7 +17374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A178" s="34" t="s">
         <v>333</v>
       </c>
@@ -17338,7 +17388,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A179" s="34" t="s">
         <v>333</v>
       </c>
@@ -17352,7 +17402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A180" s="34" t="s">
         <v>334</v>
       </c>
@@ -17366,7 +17416,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A181" s="34" t="s">
         <v>335</v>
       </c>
@@ -17380,7 +17430,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A182" s="34" t="s">
         <v>336</v>
       </c>
@@ -17394,7 +17444,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A183" s="34" t="s">
         <v>337</v>
       </c>
@@ -17408,7 +17458,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A184" s="34" t="s">
         <v>608</v>
       </c>
@@ -17422,7 +17472,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A185" s="34" t="s">
         <v>338</v>
       </c>
@@ -17436,7 +17486,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A186" s="34" t="s">
         <v>339</v>
       </c>
@@ -17450,7 +17500,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A187" s="34" t="s">
         <v>341</v>
       </c>
@@ -17465,7 +17515,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:IV187">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:IV187">
     <sortCondition ref="A2"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
